--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail7 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>1.342806857980897e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.752677410280132</v>
+        <v>8.907501418123854e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.096096292245367</v>
+        <v>7.152424629021499e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.907501418123854e-07</v>
+        <v>0.07661472604403693</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.152424629021499e-06</v>
+        <v>0.3062641648457863</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07661472604403693</v>
+        <v>0.09954065046908327</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3062641648457863</v>
+        <v>1.897440850983674</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09954065046908327</v>
+        <v>2.036521304322667</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.907225426341348</v>
+        <v>3.869461100572464</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.036521304322667</v>
+        <v>3.112297798307111e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.869461100572464</v>
+        <v>162981362.2900721</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.112297798307111e-15</v>
+        <v>7.330261787135613e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>162981362.2900721</v>
+        <v>82.67173129455742</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.330261787135613e-07</v>
+        <v>0.0001597749076679379</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>82.67173129455742</v>
+        <v>9.181426263864999</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001597749076679379</v>
+        <v>1.278518761123539</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.181426263864999</v>
+        <v>0.01346879915239019</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.278518761123539</v>
+        <v>2.891578407899807</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01346879915239019</v>
+        <v>0.9606137862680091</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.891578407899807</v>
+        <v>1.428878153066299</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9606137862680091</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.428878153066299</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3078838756514839</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>1.108889733440679e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8600557073755304</v>
+        <v>7.187927101922018e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.386930077325135</v>
+        <v>7.161080423047168e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.187927101922018e-07</v>
+        <v>0.0642436771673124</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.161080423047168e-06</v>
+        <v>0.3197083176887769</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0642436771673124</v>
+        <v>0.1062076265783426</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3197083176887769</v>
+        <v>1.901796617360041</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1062076265783426</v>
+        <v>2.037275244911751</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.908089373343352</v>
+        <v>4.14221584695533</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.037275244911751</v>
+        <v>2.715918066323103e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.14221584695533</v>
+        <v>190093807.0943816</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.715918066323103e-15</v>
+        <v>6.299161663853434e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>190093807.0943816</v>
+        <v>98.14147959902546</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.299161663853434e-07</v>
+        <v>0.000157077775993674</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>98.14147959902546</v>
+        <v>10.16138001652906</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000157077775993674</v>
+        <v>1.14448864409913</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.16138001652906</v>
+        <v>0.01621885273767977</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.14448864409913</v>
+        <v>2.712083944099986</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01621885273767977</v>
+        <v>0.9603446838337034</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.712083944099986</v>
+        <v>1.416352313548669</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9603446838337034</v>
+        <v>49</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.416352313548669</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3109571855436891</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>9.607508125697588e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.06675480336873262</v>
+        <v>5.721979552594908e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.9572362352740296</v>
+        <v>7.166793464295762e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.721979552594908e-07</v>
+        <v>0.04563872761684073</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.166793464295762e-06</v>
+        <v>0.31814169624241</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04563872761684073</v>
+        <v>0.1031677565166992</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.31814169624241</v>
+        <v>1.903634491095508</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1031677565166992</v>
+        <v>2.291176250778949</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.911303472626477</v>
+        <v>4.196678366924976</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.291176250778949</v>
+        <v>2.645883654068789e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.196678366924976</v>
+        <v>187110999.5982621</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.645883654068789e-15</v>
+        <v>6.384691487121283e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>187110999.5982621</v>
+        <v>92.63377891529908</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.384691487121283e-07</v>
+        <v>0.0001615663334859271</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>92.63377891529908</v>
+        <v>10.09236079372954</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001615663334859271</v>
+        <v>1.160637368421659</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.09236079372954</v>
+        <v>0.0164564594888355</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.160637368421659</v>
+        <v>2.729284147085912</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0164564594888355</v>
+        <v>0.9598088674592458</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.729284147085912</v>
+        <v>1.420841993371303</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9598088674592458</v>
+        <v>43</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.420841993371303</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2939863332934864</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>8.864132947327678e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6522426487474476</v>
+        <v>4.517847223376357e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1422418520851165</v>
+        <v>7.169988996998404e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.517847223376357e-07</v>
+        <v>0.02370209185093209</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.169988996998404e-06</v>
+        <v>0.300678076119385</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02370209185093209</v>
+        <v>0.09087395944485128</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.300678076119385</v>
+        <v>1.901742037713263</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09087395944485128</v>
+        <v>2.195878431365136</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.91178701761954</v>
+        <v>4.182625472258561</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.195878431365136</v>
+        <v>2.663692940418236e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.182625472258561</v>
+        <v>188843592.3204765</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.663692940418236e-15</v>
+        <v>6.322553748661251e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>188843592.3204765</v>
+        <v>94.99235755955449</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.322553748661251e-07</v>
+        <v>0.0001789940508466353</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>94.99235755955449</v>
+        <v>9.101972558162831</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001789940508466353</v>
+        <v>1.398516126284392</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.101972558162831</v>
+        <v>0.0148289240334781</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.398516126284392</v>
+        <v>2.820124328469298</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0148289240334781</v>
+        <v>0.961290519152815</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.820124328469298</v>
+        <v>1.417606696815727</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.961290519152815</v>
+        <v>59</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.417606696815727</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2693696386791993</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>8.635712401979444e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8298510060672646</v>
+        <v>3.581053260219086e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3348299937874888</v>
+        <v>7.171136326939468e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.581053260219086e-07</v>
+        <v>0.003093730264977252</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.171136326939468e-06</v>
+        <v>0.2769086551902042</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.003093730264977252</v>
+        <v>0.07662544970572767</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2769086551902042</v>
+        <v>1.89684449544582</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07662544970572767</v>
+        <v>2.137179248147938</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.909983903731404</v>
+        <v>4.199990427228652</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.137179248147938</v>
+        <v>2.641712277469038e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.199990427228652</v>
+        <v>189431955.9743041</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.641712277469038e-15</v>
+        <v>6.291056891239603e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>189431955.9743041</v>
+        <v>94.79643425534658</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.291056891239603e-07</v>
+        <v>0.0001810684538924152</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>94.79643425534658</v>
+        <v>8.989230102425237</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001810684538924152</v>
+        <v>1.445423570211641</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.989230102425237</v>
+        <v>0.01463146417089726</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.445423570211641</v>
+        <v>2.838992204375274</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01463146417089726</v>
+        <v>0.9603298209721944</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.838992204375274</v>
+        <v>1.397987512074042</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9603298209721944</v>
+        <v>103</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.397987512074042</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2774095527568448</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>8.711497966432552e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7872665885351391</v>
+        <v>3.584835231521386e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3295515321674651</v>
+        <v>7.170617486715316e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.584835231521386e-07</v>
+        <v>-0.01436077831586271</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.170617486715316e-06</v>
+        <v>0.251672752917629</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01436077831586271</v>
+        <v>0.06350509858091864</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.251672752917629</v>
+        <v>1.895215693646651</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06350509858091864</v>
+        <v>2.125824194368374</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.906120741558107</v>
+        <v>4.239992080192449</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.125824194368374</v>
+        <v>2.59210162850614e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.239992080192449</v>
+        <v>198378155.2007463</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.59210162850614e-15</v>
+        <v>6.022152665947935e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>198378155.2007463</v>
+        <v>102.0092887358283</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.022152665947935e-07</v>
+        <v>0.00016029454653924</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>102.0092887358283</v>
+        <v>9.854387029803698</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.00016029454653924</v>
+        <v>1.18623979434315</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.854387029803698</v>
+        <v>0.01556603410061199</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.18623979434315</v>
+        <v>2.78916883999841</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01556603410061199</v>
+        <v>0.9605999077879894</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.78916883999841</v>
+        <v>1.397065932204853</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9605999077879894</v>
+        <v>135</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.397065932204853</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3089963091140898</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>8.941228365248818e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6892186887734626</v>
+        <v>3.741609505905808e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.3422347896787259</v>
+        <v>7.168720161216466e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.741609505905808e-07</v>
+        <v>-0.02787812011672188</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.168720161216466e-06</v>
+        <v>0.229781919636337</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02787812011672188</v>
+        <v>0.05355362969475699</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.229781919636337</v>
+        <v>1.900733469556658</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05355362969475699</v>
+        <v>2.268808886599675</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.909682861796706</v>
+        <v>4.274286625483811</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.268808886599675</v>
+        <v>2.550673276986637e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.274286625483811</v>
+        <v>200461225.2727968</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.550673276986637e-15</v>
+        <v>5.98201104486027e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>200461225.2727968</v>
+        <v>102.4980476722066</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.98201104486027e-07</v>
+        <v>0.0001573665625180301</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>102.4980476722066</v>
+        <v>10.24928891941673</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001573665625180301</v>
+        <v>1.146976766295509</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.24928891941673</v>
+        <v>0.01653103059782589</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.146976766295509</v>
+        <v>2.66862561986315</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01653103059782589</v>
+        <v>0.9611173380149877</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.66862561986315</v>
+        <v>1.413528932965848</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9611173380149877</v>
+        <v>151</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.413528932965848</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3198700300901648</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>9.229555197830145e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6022520906132974</v>
+        <v>3.887166019906039e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3486873958828935</v>
+        <v>7.165703488466559e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.887166019906039e-07</v>
+        <v>-0.03798554979151998</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.165703488466559e-06</v>
+        <v>0.2122585189275516</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03798554979151998</v>
+        <v>0.04648197769322738</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2122585189275516</v>
+        <v>1.906034174381894</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04648197769322738</v>
+        <v>2.215074171687459</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.912977825233295</v>
+        <v>4.253120558694094</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.215074171687459</v>
+        <v>2.576123793968774e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.253120558694094</v>
+        <v>197822732.0375407</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.576123793968774e-15</v>
+        <v>6.06582377947546e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>197822732.0375407</v>
+        <v>100.813599141151</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.06582377947546e-07</v>
+        <v>0.0001543317825177865</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>100.813599141151</v>
+        <v>9.459293669438631</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001543317825177865</v>
+        <v>1.191308943432391</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.459293669438631</v>
+        <v>0.0138093357702686</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.191308943432391</v>
+        <v>2.824181266323371</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0138093357702686</v>
+        <v>0.9614289042468116</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.824181266323371</v>
+        <v>1.401829336023206</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9614289042468116</v>
+        <v>134</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.401829336023206</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3237189866366375</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>9.521164414895287e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5383173290212971</v>
+        <v>4.011845838010731e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.3171509217059105</v>
+        <v>7.161757686468981e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.011845838010731e-07</v>
+        <v>-0.04589776580374384</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.161757686468981e-06</v>
+        <v>0.1975260864765575</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04589776580374384</v>
+        <v>0.04111074258393368</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1975260864765575</v>
+        <v>1.908151538567415</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04111074258393368</v>
+        <v>2.128701125092707</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.915216995294727</v>
+        <v>4.235974866721246</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.128701125092707</v>
+        <v>2.59702043163306e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.235974866721246</v>
+        <v>197876645.9266225</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.59702043163306e-15</v>
+        <v>6.068626229304938e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>197876645.9266225</v>
+        <v>101.686768711237</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.068626229304938e-07</v>
+        <v>0.0001656368907336447</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>101.686768711237</v>
+        <v>8.737752194808618</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001656368907336447</v>
+        <v>1.38169025697407</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.737752194808618</v>
+        <v>0.01264609724729591</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.38169025697407</v>
+        <v>2.923190938041087</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01264609724729591</v>
+        <v>0.9609655053217973</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.923190938041087</v>
+        <v>1.393590190384299</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9609655053217973</v>
+        <v>134</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.393590190384299</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3637001837883159</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>9.770022907290584e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4947723132805219</v>
+        <v>4.107963092263302e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2359602567532888</v>
+        <v>7.156939787348106e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.107963092263302e-07</v>
+        <v>-0.05395608495169721</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.156939787348106e-06</v>
+        <v>0.1812191297606062</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05395608495169721</v>
+        <v>0.03573617375818456</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1812191297606062</v>
+        <v>1.90964786078627</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03573617375818456</v>
+        <v>2.033179164724091</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.913090310049585</v>
+        <v>4.291823528679032</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.033179164724091</v>
+        <v>2.529871153076569e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.291823528679032</v>
+        <v>203790570.2835998</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.529871153076569e-15</v>
+        <v>5.894792317301235e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>203790570.2835998</v>
+        <v>105.0670581477906</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.894792317301235e-07</v>
+        <v>0.0001874198398189254</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>105.0670581477906</v>
+        <v>9.271086234116405</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001874198398189254</v>
+        <v>1.406447445805869</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.271086234116405</v>
+        <v>0.01610930498133212</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.406447445805869</v>
+        <v>2.876158226596903</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01610930498133212</v>
+        <v>0.9592721668259122</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.876158226596903</v>
+        <v>1.398675112379854</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9592721668259122</v>
+        <v>134</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.398675112379854</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5044985371750145</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>9.917801452436386e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4581784372340889</v>
+        <v>4.167444267297822e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.1109163042371986</v>
+        <v>7.151222101416765e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.167444267297822e-07</v>
+        <v>-0.06174529664729417</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.151222101416765e-06</v>
+        <v>0.1657415623106721</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06174529664729417</v>
+        <v>0.03127276137893151</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1657415623106721</v>
+        <v>1.912267249879048</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03127276137893151</v>
+        <v>1.967819221337264</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.916760816093095</v>
+        <v>4.484261140508899</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.967819221337264</v>
+        <v>2.24471904357808e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.484261140508899</v>
+        <v>236671777.5623678</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.24471904357808e-15</v>
+        <v>5.077974421452798e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>236671777.5623678</v>
+        <v>125.7346381501712</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.077974421452798e-07</v>
+        <v>0.0001986492591566571</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>125.7346381501712</v>
+        <v>11.72102670696821</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001986492591566571</v>
+        <v>1.100644227641499</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.72102670696821</v>
+        <v>0.02729092530366786</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.100644227641499</v>
+        <v>2.655922809511464</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02729092530366786</v>
+        <v>0.9596858502548096</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.655922809511464</v>
+        <v>1.36593514856347</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9596858502548096</v>
+        <v>134</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.36593514856347</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.8026183434412468</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>9.930483090187075e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4054685372835494</v>
+        <v>4.184165156721418e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.003236979442788446</v>
+        <v>7.14479265552491e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.184165156721418e-07</v>
+        <v>-0.06715663682796535</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.14479265552491e-06</v>
+        <v>0.1581885997460838</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06715663682796535</v>
+        <v>0.02953096967083334</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1581885997460838</v>
+        <v>1.915802907752937</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02953096967083334</v>
+        <v>2.279668222573817</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.923670303250702</v>
+        <v>3.92168877962608</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.279668222573817</v>
+        <v>2.044825897723215e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.92168877962608</v>
+        <v>244218244.6632942</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.044825897723215e-15</v>
+        <v>4.901690056993513e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>244218244.6632942</v>
+        <v>121.9586329451032</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.901690056993513e-07</v>
+        <v>0.000199292093399545</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>121.9586329451032</v>
+        <v>12.33156722747199</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000199292093399545</v>
+        <v>1.043974989626807</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.33156722747199</v>
+        <v>0.03030586043457</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.043974989626807</v>
+        <v>2.703989981215163</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03030586043457</v>
+        <v>0.9599395054625848</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.703989981215163</v>
+        <v>1.307186602083426</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9599395054625848</v>
+        <v>133</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.307186602083426</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.9742050703050891</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>9.818823856464249e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3239694912751242</v>
+        <v>4.184165156721418e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.045446184459073</v>
+        <v>7.137983313150868e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.184165156721418e-07</v>
+        <v>-0.07029733428571285</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.137983313150868e-06</v>
+        <v>0.1575549064260311</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07029733428571285</v>
+        <v>0.02976538333740115</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1575549064260311</v>
+        <v>1.921466317186135</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02976538333740115</v>
+        <v>2.048041560744335</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.942663318302165</v>
+        <v>4.193377779252328</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.048041560744335</v>
+        <v>1.788440965122491e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.193377779252328</v>
+        <v>278761978.5880249</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.788440965122491e-15</v>
+        <v>4.304944742300594e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>278761978.5880249</v>
+        <v>138.9766010067647</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.304944742300594e-07</v>
+        <v>0.0001849340426318486</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>138.9766010067647</v>
+        <v>11.21313965570174</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001849340426318486</v>
+        <v>1.233397518573893</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.21313965570174</v>
+        <v>0.02325258955681242</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.233397518573893</v>
+        <v>3.203227161197213</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02325258955681242</v>
+        <v>0.9596862145312129</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.203227161197213</v>
+        <v>1.117335329292156</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9596862145312129</v>
+        <v>136</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.117335329292156</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.407251943800898</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>9.617753308589305e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2112664092638732</v>
+        <v>4.171844625552578e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.01266581620836149</v>
+        <v>7.131062693887566e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.171844625552578e-07</v>
+        <v>-0.07174165507964715</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.131062693887566e-06</v>
+        <v>0.1607625351495242</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.07174165507964715</v>
+        <v>0.03099187944938864</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1607625351495242</v>
+        <v>1.92023398634897</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03099187944938864</v>
+        <v>2.103091991513357</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.942751910330832</v>
+        <v>5.071236740948327</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.103091991513357</v>
+        <v>1.043912732785796e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.071236740948327</v>
+        <v>483924202.6568696</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.043912732785796e-15</v>
+        <v>2.483393175656234e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>483924202.6568696</v>
+        <v>244.466233343362</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.483393175656234e-07</v>
+        <v>0.0001610729401732535</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>244.466233343362</v>
+        <v>10.00168316602845</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001610729401732535</v>
+        <v>1.583093013609232</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.00168316602845</v>
+        <v>0.01611271672367275</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.583093013609232</v>
+        <v>4.003731165071308</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01611271672367275</v>
+        <v>0.9610139757689071</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.003731165071308</v>
+        <v>1.139196716853741</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9610139757689071</v>
+        <v>140</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.139196716853741</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>2.680504555320887</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>9.382827886116354e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.07914063854434211</v>
+        <v>4.054135768752193e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1521356115497028</v>
+        <v>7.124245881401262e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.054135768752193e-07</v>
+        <v>-0.07147458968668755</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.124245881401262e-06</v>
+        <v>0.1648469085032167</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.07147458968668755</v>
+        <v>0.03228164320676994</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1648469085032167</v>
+        <v>1.917432387332258</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03228164320676994</v>
+        <v>2.251081145489227</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.939227188839389</v>
+        <v>5.187485391852926</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.251081145489227</v>
+        <v>5.804889333515299e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.187485391852926</v>
+        <v>874388498.740001</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.804889333515299e-16</v>
+        <v>1.373571416418086e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>874388498.740001</v>
+        <v>443.8158596619126</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.373571416418086e-07</v>
+        <v>0.0001545945414849081</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>443.8158596619126</v>
+        <v>8.982257186329493</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001545945414849081</v>
+        <v>1.625419784715073</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.982257186329493</v>
+        <v>0.01247283356919613</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.625419784715073</v>
+        <v>4.038070448158342</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01247283356919613</v>
+        <v>0.9603563945108291</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.038070448158342</v>
+        <v>1.103286470481956</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9603563945108291</v>
+        <v>142</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.103286470481956</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.764179891078562</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>9.16536021632304e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.04867717061027758</v>
+        <v>3.842381251137885e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3210194706440346</v>
+        <v>7.117697387348571e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.842381251137885e-07</v>
+        <v>-0.06950970216478264</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.117697387348571e-06</v>
+        <v>0.1676483451714448</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06950970216478264</v>
+        <v>0.03293331188561676</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1676483451714448</v>
+        <v>1.920546502001173</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03293331188561676</v>
+        <v>2.453888905590144</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.946438756943462</v>
+        <v>5.141403774019633</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.453888905590144</v>
+        <v>3.836105521662823e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.141403774019633</v>
+        <v>1366094890.352685</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.836105521662823e-16</v>
+        <v>8.813394754526689e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1366094890.352685</v>
+        <v>715.8998623017744</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.813394754526689e-08</v>
+        <v>0.0001535588525723209</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>715.8998623017744</v>
+        <v>9.860572592066404</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001535588525723209</v>
+        <v>1.245529968705501</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.860572592066404</v>
+        <v>0.01493066418605766</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.245529968705501</v>
+        <v>3.546408494542006</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01493066418605766</v>
+        <v>0.9608959911035408</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.546408494542006</v>
+        <v>1.062758010130423</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9608959911035408</v>
+        <v>177</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.062758010130423</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.938908051025457</v>
       </c>
     </row>
@@ -2313,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.375908625736261</v>
+        <v>1.347592206622881</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.767204186547768</v>
@@ -2402,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.379785039889807</v>
+        <v>1.351961437983981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.782537510944944</v>
@@ -2491,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.37861096515826</v>
+        <v>1.354889868901855</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.746478984343066</v>
@@ -2580,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373634324460883</v>
+        <v>1.346849804233911</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.742032905169927</v>
@@ -2669,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.389547653191465</v>
+        <v>1.352910714091854</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.725824088574214</v>
@@ -2758,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499232046724353</v>
+        <v>1.440811849888649</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.350702385910017</v>
@@ -2847,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.525248041917473</v>
+        <v>1.446746063558582</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.418936313626386</v>
@@ -2936,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.556377270569884</v>
+        <v>1.470340327723337</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.418816491710369</v>
@@ -3025,7 +2917,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559962882095569</v>
+        <v>1.478203365803323</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.368103326078636</v>
@@ -3114,7 +3006,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.566353450764833</v>
+        <v>1.482865597753505</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.277988805690109</v>
@@ -3203,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565750717715314</v>
+        <v>1.483176740353987</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.413096857550732</v>
@@ -3292,7 +3184,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.556781233467929</v>
+        <v>1.471363475895964</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.284701767523305</v>
@@ -3381,7 +3273,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.594309287836962</v>
+        <v>1.49429776242477</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.882888525125222</v>
@@ -3470,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623369951538655</v>
+        <v>1.498857595793875</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.255035985532432</v>
@@ -3559,7 +3451,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.621343350424551</v>
+        <v>1.499583346230283</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.241657123753274</v>
@@ -3648,7 +3540,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.612987809501611</v>
+        <v>1.501317978991763</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.038957402277461</v>
@@ -3737,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.611012319146272</v>
+        <v>1.499621849884305</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.969597524194529</v>
@@ -3826,7 +3718,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606452022759</v>
+        <v>1.494571247503561</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.260909890025248</v>
@@ -3915,7 +3807,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604555289032037</v>
+        <v>1.498670930058344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.982083360157864</v>
@@ -4004,7 +3896,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.597615834586743</v>
+        <v>1.497200945388738</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.047506913486766</v>
@@ -4093,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574190174708556</v>
+        <v>1.489214898101521</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.844961577445789</v>
@@ -4182,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556799885170193</v>
+        <v>1.492739390781647</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.605303731976678</v>
@@ -4271,7 +4163,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.565592652711742</v>
+        <v>1.504684735620431</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.749434336859832</v>
@@ -4360,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.557230494406156</v>
+        <v>1.487883531129324</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.785731270362438</v>
@@ -4449,7 +4341,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.550924734694026</v>
+        <v>1.491678668116051</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.914319863942154</v>
@@ -4538,7 +4430,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.556973430858185</v>
+        <v>1.48676531723317</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.981040422773102</v>
@@ -4627,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54761806845057</v>
+        <v>1.479346346438716</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.931500786786164</v>
@@ -4716,7 +4608,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.550093873664025</v>
+        <v>1.480102388022926</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.826737788002758</v>
@@ -4805,7 +4697,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.545375018685949</v>
+        <v>1.481403095145661</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.781497201783248</v>
@@ -4894,7 +4786,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545726511927001</v>
+        <v>1.478100957925015</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.781604617540447</v>
@@ -4983,7 +4875,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544973520073898</v>
+        <v>1.466535527480956</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.738765958149913</v>
@@ -5072,7 +4964,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.540966105655995</v>
+        <v>1.469694639422649</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.829606863752153</v>
@@ -5161,7 +5053,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.538229040007085</v>
+        <v>1.472148566801184</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.716036249634649</v>
@@ -5250,7 +5142,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536305920518074</v>
+        <v>1.473754823302294</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.68223723514333</v>
@@ -5339,7 +5231,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538115637126592</v>
+        <v>1.465825756586685</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.942069248377817</v>
@@ -5428,7 +5320,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.550153682465873</v>
+        <v>1.474245882673055</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.485673773017397</v>
@@ -5517,7 +5409,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.559068509342847</v>
+        <v>1.471075676456519</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.201016653332168</v>
@@ -5606,7 +5498,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.549611661423166</v>
+        <v>1.465479602752695</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.872579255761744</v>
@@ -5695,7 +5587,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.550493151924006</v>
+        <v>1.467623688693992</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.116763773860179</v>
@@ -5784,7 +5676,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542604510689941</v>
+        <v>1.460149493335969</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.183510945376633</v>
@@ -5873,7 +5765,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.542277301974953</v>
+        <v>1.463712374620996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.701378748307933</v>
@@ -5962,7 +5854,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.543372756293509</v>
+        <v>1.471358422426041</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.301265882479846</v>
@@ -6051,7 +5943,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535240355413936</v>
+        <v>1.465431675934033</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.028626947232219</v>
@@ -6140,7 +6032,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.540020823947684</v>
+        <v>1.470951619406445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.117063292906016</v>
@@ -6229,7 +6121,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.531554971416706</v>
+        <v>1.468319891700398</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.066749506510807</v>
@@ -6318,7 +6210,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.532822838489788</v>
+        <v>1.478979939909736</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.17216264677439</v>
@@ -6407,7 +6299,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.540259685400732</v>
+        <v>1.474229697658881</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.331610976378037</v>
@@ -6496,7 +6388,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547871274417052</v>
+        <v>1.476009819889633</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.155238337622701</v>
@@ -6585,7 +6477,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551686012371239</v>
+        <v>1.471373972249823</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.211358397083348</v>
@@ -6674,7 +6566,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.547722343383054</v>
+        <v>1.476953320140503</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.308674266667845</v>
@@ -6763,7 +6655,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.559593962040412</v>
+        <v>1.482891924847942</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.87853955970897</v>
@@ -6852,7 +6744,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.557334573186106</v>
+        <v>1.480605593710425</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.006514714104716</v>
@@ -6941,7 +6833,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561611772954276</v>
+        <v>1.48222109189639</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.261327879421915</v>
@@ -7030,7 +6922,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.579049959478148</v>
+        <v>1.50031582110557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.024454141628448</v>
@@ -7119,7 +7011,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.595294590762175</v>
+        <v>1.511227556551347</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.083673569625975</v>
@@ -7208,7 +7100,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.592564992050745</v>
+        <v>1.510576418615167</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.262496457620971</v>
@@ -7297,7 +7189,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.597883676343645</v>
+        <v>1.513857653181139</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.102276339104161</v>
@@ -7386,7 +7278,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602944386446012</v>
+        <v>1.516780851619184</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.195264651000806</v>
@@ -7475,7 +7367,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594316492563975</v>
+        <v>1.509505754056802</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.32646795226885</v>
@@ -7564,7 +7456,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586759682779986</v>
+        <v>1.501845658478172</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.06695327453432</v>
@@ -7653,7 +7545,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.572069318202821</v>
+        <v>1.490761600581125</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.954346576454601</v>
@@ -7939,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.381190991533278</v>
+        <v>1.367267127851152</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.832927688512761</v>
@@ -8028,7 +7920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.386764214682412</v>
+        <v>1.373841060220719</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.838941566467299</v>
@@ -8117,7 +8009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.38658716452258</v>
+        <v>1.379710526641616</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.792116576274861</v>
@@ -8206,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37809919346644</v>
+        <v>1.367382843646993</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.807708543627016</v>
@@ -8295,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.400985208986321</v>
+        <v>1.38161842053773</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.770381131165477</v>
@@ -8384,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503551336535486</v>
+        <v>1.465269699523069</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.329080469485584</v>
@@ -8473,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.520294300331461</v>
+        <v>1.467962436629553</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.340816120590489</v>
@@ -8562,7 +8454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.555202475354285</v>
+        <v>1.494911951873684</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.417662192648298</v>
@@ -8651,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566138315602311</v>
+        <v>1.505142776249862</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.392511386980207</v>
@@ -8740,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.5803284175864</v>
+        <v>1.51968778866744</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.31018816529196</v>
@@ -8829,7 +8721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.58058494288999</v>
+        <v>1.518307392788786</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.403383451917928</v>
@@ -8918,7 +8810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.569139970443482</v>
+        <v>1.501204106353768</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.328480595897123</v>
@@ -9007,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.599514124145017</v>
+        <v>1.518197168076309</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.946872108600226</v>
@@ -9096,7 +8988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.606884401435039</v>
+        <v>1.516137485630315</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.320894529660976</v>
@@ -9185,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598702681100203</v>
+        <v>1.510941133740501</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.168621151117234</v>
@@ -9274,7 +9166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.590458786965045</v>
+        <v>1.509978186449656</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.116035554220153</v>
@@ -9363,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596739787522458</v>
+        <v>1.515308669050592</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.168863096187911</v>
@@ -9452,7 +9344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.594617561599802</v>
+        <v>1.514077579892707</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.34202952337472</v>
@@ -9541,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.607098921298775</v>
+        <v>1.522838056480269</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.129026469519629</v>
@@ -9630,7 +9522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.598252432878747</v>
+        <v>1.514151432259516</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.110099935063336</v>
@@ -9719,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573102446611643</v>
+        <v>1.506404305501766</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.874813579495017</v>
@@ -9808,7 +9700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.545833121416911</v>
+        <v>1.491867500289147</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.851172369181818</v>
@@ -9897,7 +9789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553697085780163</v>
+        <v>1.500901935443174</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.786043133248454</v>
@@ -9986,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.549251270635533</v>
+        <v>1.490067141511482</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.752709063147954</v>
@@ -10075,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.531751021315182</v>
+        <v>1.480374633278888</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.81913625909746</v>
@@ -10164,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.531178294938799</v>
+        <v>1.473473925198572</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.779743968633822</v>
@@ -10253,7 +10145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.522329099687035</v>
+        <v>1.473725400277562</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.785846462498323</v>
@@ -10342,7 +10234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528416250559585</v>
+        <v>1.479205835347526</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.791052241624352</v>
@@ -10431,7 +10323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.53203650359765</v>
+        <v>1.481946123915077</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.667991417231531</v>
@@ -10520,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.534135217349976</v>
+        <v>1.481115757234203</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.557856440610157</v>
@@ -10609,7 +10501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.538295123057461</v>
+        <v>1.480517566943717</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.757838258477435</v>
@@ -10698,7 +10590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.530897201606348</v>
+        <v>1.476088383460594</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.884354225667526</v>
@@ -10787,7 +10679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525819386388743</v>
+        <v>1.474388876517464</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.766065250938351</v>
@@ -10876,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.511669827788456</v>
+        <v>1.464580032747723</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.844686255142755</v>
@@ -10965,7 +10857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.514365804098714</v>
+        <v>1.464582663065192</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.814943096928434</v>
@@ -11054,7 +10946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535926235447719</v>
+        <v>1.482421468877986</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.358518175382017</v>
@@ -11143,7 +11035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545916551224092</v>
+        <v>1.491283064177841</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.035994264314805</v>
@@ -11232,7 +11124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.532756493128862</v>
+        <v>1.479549160363209</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.030209164686023</v>
@@ -11321,7 +11213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.533942560549911</v>
+        <v>1.480156987992563</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.810100672148424</v>
@@ -11410,7 +11302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.535899746231521</v>
+        <v>1.482457787621825</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.230508429008516</v>
@@ -11499,7 +11391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532816677896314</v>
+        <v>1.48298293056866</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.672874556389748</v>
@@ -11588,7 +11480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529862875191595</v>
+        <v>1.483434152306935</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.250441235566548</v>
@@ -11677,7 +11569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.527809848780161</v>
+        <v>1.477852618433614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.158985901787851</v>
@@ -11766,7 +11658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530269079125151</v>
+        <v>1.480334054179494</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.830180458091486</v>
@@ -11855,7 +11747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5329007288491</v>
+        <v>1.48493118018711</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.970000277037485</v>
@@ -11944,7 +11836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.531766166906114</v>
+        <v>1.492232703812951</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.226361757633919</v>
@@ -12033,7 +11925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.537751070053674</v>
+        <v>1.491512369207934</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.157468447016719</v>
@@ -12122,7 +12014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.545666172737364</v>
+        <v>1.493170912100782</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.045491001542102</v>
@@ -12211,7 +12103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.553919347178648</v>
+        <v>1.492170079389954</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.851303248169563</v>
@@ -12300,7 +12192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.543717266140271</v>
+        <v>1.492198540521005</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.973694820335935</v>
@@ -12389,7 +12281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.549204663836968</v>
+        <v>1.49064933163562</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.937727027219085</v>
@@ -12478,7 +12370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.547228596279852</v>
+        <v>1.481798976956006</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.019258799658384</v>
@@ -12567,7 +12459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.559734044621476</v>
+        <v>1.487358679897981</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.914885511141807</v>
@@ -12656,7 +12548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.575374801412443</v>
+        <v>1.507486799060648</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.048449911223608</v>
@@ -12745,7 +12637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.588883115356129</v>
+        <v>1.510549527010188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.847558115447813</v>
@@ -12834,7 +12726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.599538753267658</v>
+        <v>1.521150919866671</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.017283396594958</v>
@@ -12923,7 +12815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.60485101412266</v>
+        <v>1.524830735656798</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.877211680201508</v>
@@ -13012,7 +12904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.611646910782592</v>
+        <v>1.524647960590389</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.992917488573495</v>
@@ -13101,7 +12993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.604236174047566</v>
+        <v>1.51503743897714</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.08506588161945</v>
@@ -13190,7 +13082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.601385852611141</v>
+        <v>1.51111982182964</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.951411341446218</v>
@@ -13279,7 +13171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.593961644926394</v>
+        <v>1.505508461576217</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.828653840344547</v>
@@ -13565,7 +13457,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.351621269636545</v>
+        <v>1.327559854489185</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.884603886643252</v>
@@ -13654,7 +13546,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.354183096828437</v>
+        <v>1.334341290945417</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.868485021327397</v>
@@ -13743,7 +13635,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.358954542955623</v>
+        <v>1.338452008930197</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.834518345894262</v>
@@ -13832,7 +13724,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.358595653704682</v>
+        <v>1.333923435347739</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.861429105480964</v>
@@ -13921,7 +13813,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374556571699544</v>
+        <v>1.344857485209822</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.82500205613094</v>
@@ -14010,7 +13902,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.457220425874346</v>
+        <v>1.41088743679193</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.332733101800816</v>
@@ -14099,7 +13991,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.461795860121902</v>
+        <v>1.413395322328955</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.550229039459123</v>
@@ -14188,7 +14080,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.498767620824087</v>
+        <v>1.43884942868903</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.671403329373996</v>
@@ -14277,7 +14169,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.507066655824638</v>
+        <v>1.440218213474522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.593225453556141</v>
@@ -14366,7 +14258,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.521338553257635</v>
+        <v>1.451012982186028</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.643604494831437</v>
@@ -14455,7 +14347,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.512975856163781</v>
+        <v>1.445066994289437</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.655329630811471</v>
@@ -14544,7 +14436,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.51147514513545</v>
+        <v>1.442255162991467</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.598655944682816</v>
@@ -14633,7 +14525,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531695617157055</v>
+        <v>1.45170965328931</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.48138930998421</v>
@@ -14722,7 +14614,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.53668432257024</v>
+        <v>1.447369581466385</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.717769313016059</v>
@@ -14811,7 +14703,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.537194822947346</v>
+        <v>1.451517704758908</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.792605535307021</v>
@@ -14900,7 +14792,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53924091507269</v>
+        <v>1.460189121870539</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.746501405614532</v>
@@ -14989,7 +14881,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.536817912984463</v>
+        <v>1.452679319386684</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.843588211955281</v>
@@ -15078,7 +14970,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.539191809502695</v>
+        <v>1.453734516379979</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.906718462848474</v>
@@ -15167,7 +15059,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562516135527575</v>
+        <v>1.466317160390075</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.557107969850595</v>
@@ -15256,7 +15148,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.563967359636754</v>
+        <v>1.465088432769577</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.924800598836931</v>
@@ -15345,7 +15237,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.532633007499575</v>
+        <v>1.453023680450008</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.75471174067683</v>
@@ -15434,7 +15326,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.523341888414278</v>
+        <v>1.44530175399921</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.846417148296419</v>
@@ -15523,7 +15415,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.522648956741596</v>
+        <v>1.449056138027122</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.093904653822384</v>
@@ -15612,7 +15504,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526907084825851</v>
+        <v>1.457100378053583</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.822254750704852</v>
@@ -15701,7 +15593,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.519094740080811</v>
+        <v>1.446621681519249</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.854711671046484</v>
@@ -15790,7 +15682,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.530930966576594</v>
+        <v>1.454141724312861</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.026793397739905</v>
@@ -15879,7 +15771,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.526838391600167</v>
+        <v>1.452986519243398</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.801243838691371</v>
@@ -15968,7 +15860,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524472067907353</v>
+        <v>1.454495243757366</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.792137711827231</v>
@@ -16057,7 +15949,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.524075389346526</v>
+        <v>1.456132164467611</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.71813411620513</v>
@@ -16146,7 +16038,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.512133960051267</v>
+        <v>1.449331277376924</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.627094812529411</v>
@@ -16235,7 +16127,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510913855470938</v>
+        <v>1.441318422407837</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.789817513232987</v>
@@ -16324,7 +16216,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507965645620582</v>
+        <v>1.439782430046</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.752103223015267</v>
@@ -16413,7 +16305,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.509374371134651</v>
+        <v>1.44311945827179</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.850802986922615</v>
@@ -16502,7 +16394,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509680520564625</v>
+        <v>1.449073241241381</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.010494478515489</v>
@@ -16591,7 +16483,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.518895098078572</v>
+        <v>1.46175168697998</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.842091255259247</v>
@@ -16680,7 +16572,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.532097706316761</v>
+        <v>1.464728732116957</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.565921670315172</v>
@@ -16769,7 +16661,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540745839654421</v>
+        <v>1.467626588617944</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.015832454597121</v>
@@ -16858,7 +16750,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541512246186233</v>
+        <v>1.464328434085661</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.22943736389731</v>
@@ -16947,7 +16839,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.541655816002017</v>
+        <v>1.464487317884096</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.349628441267019</v>
@@ -17036,7 +16928,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.546468259917382</v>
+        <v>1.473178031884443</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.390590527896995</v>
@@ -17125,7 +17017,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53687249552614</v>
+        <v>1.472246651120894</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.184199778725607</v>
@@ -17214,7 +17106,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.545538701755582</v>
+        <v>1.472048533316992</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.31737804621158</v>
@@ -17303,7 +17195,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.543209626577451</v>
+        <v>1.468284285732049</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.873988820742048</v>
@@ -17392,7 +17284,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.543163038912781</v>
+        <v>1.467473745719767</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.037582683544059</v>
@@ -17481,7 +17373,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.552220974696796</v>
+        <v>1.472002556167077</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.921803194307084</v>
@@ -17570,7 +17462,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.558267412288737</v>
+        <v>1.47998919060452</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.412855059292284</v>
@@ -17659,7 +17551,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.570623487449307</v>
+        <v>1.490332143767874</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.253854509899264</v>
@@ -17748,7 +17640,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.572821683850803</v>
+        <v>1.488741945233599</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.365042330067079</v>
@@ -17837,7 +17729,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57134872994613</v>
+        <v>1.490890514734543</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.376615358544184</v>
@@ -17926,7 +17818,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.553906514853075</v>
+        <v>1.476640293939395</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.551442220419924</v>
@@ -18015,7 +17907,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.555311686346988</v>
+        <v>1.479622319179004</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.573900800008883</v>
@@ -18104,7 +17996,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.556432517706506</v>
+        <v>1.484938291716071</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.970915696987384</v>
@@ -18193,7 +18085,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.54807237261885</v>
+        <v>1.481962975669583</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.125809266592245</v>
@@ -18282,7 +18174,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.538738743471824</v>
+        <v>1.475853299626297</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.246144716413714</v>
@@ -18371,7 +18263,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.547967732240288</v>
+        <v>1.478683653411126</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.049499076698589</v>
@@ -18460,7 +18352,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557186602206705</v>
+        <v>1.4873977518338</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.059366598194901</v>
@@ -18549,7 +18441,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.544227984820849</v>
+        <v>1.480073372513135</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.071296135518213</v>
@@ -18638,7 +18530,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.555084780980046</v>
+        <v>1.489542337677833</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.908932823151372</v>
@@ -18727,7 +18619,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.561146644256597</v>
+        <v>1.495174279079054</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.194281943291435</v>
@@ -18816,7 +18708,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.55398729580625</v>
+        <v>1.492649520753288</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.964455162877663</v>
@@ -18905,7 +18797,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.548915608826148</v>
+        <v>1.489811023923871</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.974416096288431</v>
@@ -19191,7 +19083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606941778541144</v>
+        <v>1.525598375077731</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.961433947315542</v>
@@ -19280,7 +19172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.608729339389722</v>
+        <v>1.530311670770294</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.969291377559436</v>
@@ -19369,7 +19261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614067338384562</v>
+        <v>1.534748233467293</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.968396786291893</v>
@@ -19458,7 +19350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.616833688895474</v>
+        <v>1.532954368159399</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.965088303769581</v>
@@ -19547,7 +19439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.612669512273203</v>
+        <v>1.524958898063637</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.923964362589769</v>
@@ -19636,7 +19528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.641313124402858</v>
+        <v>1.538989056044934</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.181918077895164</v>
@@ -19725,7 +19617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640088496153399</v>
+        <v>1.534396454485357</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.604206059658978</v>
@@ -19814,7 +19706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.642538716065891</v>
+        <v>1.534697491622891</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.472481205598646</v>
@@ -19903,7 +19795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.630261787224926</v>
+        <v>1.528103769965022</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.619821925646546</v>
@@ -19992,7 +19884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630578828185364</v>
+        <v>1.527751466370509</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.660723869815132</v>
@@ -20081,7 +19973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.625634068851008</v>
+        <v>1.521492330118563</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.605248310742849</v>
@@ -20170,7 +20062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62928300916764</v>
+        <v>1.521851063972366</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.135194954218315</v>
@@ -20259,7 +20151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624274538245966</v>
+        <v>1.517912437537845</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.503518983236962</v>
@@ -20348,7 +20240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617583667279648</v>
+        <v>1.508213457339826</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.127311867110566</v>
@@ -20437,7 +20329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60398306416425</v>
+        <v>1.503610555635743</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.568048370506206</v>
@@ -20526,7 +20418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.603247408011558</v>
+        <v>1.513568096905641</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.375724489515372</v>
@@ -20615,7 +20507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596130975054525</v>
+        <v>1.504488976059973</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.514492694905955</v>
@@ -20704,7 +20596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592639384453237</v>
+        <v>1.500376128502371</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.165425028147933</v>
@@ -20793,7 +20685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.585870655709998</v>
+        <v>1.497533543630014</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.556858726555118</v>
@@ -20882,7 +20774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580512018422005</v>
+        <v>1.500254043207146</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.213827855002957</v>
@@ -20971,7 +20863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566039713168327</v>
+        <v>1.497727171564995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.21825030904289</v>
@@ -21060,7 +20952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567503101720826</v>
+        <v>1.505947561587364</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.020337082406385</v>
@@ -21149,7 +21041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.572370604395353</v>
+        <v>1.513255391234787</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.183455731346684</v>
@@ -21238,7 +21130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.586428054698615</v>
+        <v>1.528536873715823</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.259346212427992</v>
@@ -21327,7 +21219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576970906831449</v>
+        <v>1.525756510828352</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.021912197400608</v>
@@ -21416,7 +21308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570826039257657</v>
+        <v>1.51065960808184</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.203502406242883</v>
@@ -21505,7 +21397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566316520582914</v>
+        <v>1.510819575390522</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.117618540921368</v>
@@ -21594,7 +21486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.580218056109252</v>
+        <v>1.516094821050357</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.002952091259417</v>
@@ -21683,7 +21575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.594026497129875</v>
+        <v>1.526433306281852</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.644669288984886</v>
@@ -21772,7 +21664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.606563923626637</v>
+        <v>1.532752095075511</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.398975421137812</v>
@@ -21861,7 +21753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.603679103135114</v>
+        <v>1.524875747773165</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.221260979627217</v>
@@ -21950,7 +21842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608505970075796</v>
+        <v>1.53418108551899</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.252828067427717</v>
@@ -22039,7 +21931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.597681599873175</v>
+        <v>1.525492363010733</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.36852747263782</v>
@@ -22128,7 +22020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.596452829619315</v>
+        <v>1.524164588038192</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.085337076659201</v>
@@ -22217,7 +22109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609579175297546</v>
+        <v>1.524151788812953</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.004045812657675</v>
@@ -22306,7 +22198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.616703799675926</v>
+        <v>1.528207735034891</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.624895000099308</v>
@@ -22395,7 +22287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.62473703063664</v>
+        <v>1.531463893143524</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.667972985189699</v>
@@ -22484,7 +22376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616802452902419</v>
+        <v>1.525722824536176</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.803325208909765</v>
@@ -22573,7 +22465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.61449991349223</v>
+        <v>1.516476839831726</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.537155654263155</v>
@@ -22662,7 +22554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.611777268187512</v>
+        <v>1.50958472295317</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.617198623360485</v>
@@ -22751,7 +22643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607647010170043</v>
+        <v>1.514185991590666</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.279041897872907</v>
@@ -22840,7 +22732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.614259241423285</v>
+        <v>1.526677065125984</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.220756720069248</v>
@@ -22929,7 +22821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.617282458062193</v>
+        <v>1.52690368473243</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.422278021193402</v>
@@ -23018,7 +22910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.608523214711782</v>
+        <v>1.52407474623625</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.813732633742392</v>
@@ -23107,7 +22999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.592420010586729</v>
+        <v>1.508854878468536</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.089202457105027</v>
@@ -23196,7 +23088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.593139433715251</v>
+        <v>1.509072952863779</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.770819068178948</v>
@@ -23285,7 +23177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589244490883295</v>
+        <v>1.501765575488614</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.348431384729238</v>
@@ -23374,7 +23266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.589167129059849</v>
+        <v>1.502804656690859</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.506446168181933</v>
@@ -23463,7 +23355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592491673928792</v>
+        <v>1.502308337340473</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.479125593608748</v>
@@ -23552,7 +23444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.594699560570258</v>
+        <v>1.513966129542395</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.475443687463517</v>
@@ -23641,7 +23533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.600288112895411</v>
+        <v>1.517408899104414</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.580774031513454</v>
@@ -23730,7 +23622,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.594292820727587</v>
+        <v>1.513982950594213</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.798137136666856</v>
@@ -23819,7 +23711,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.594802174052904</v>
+        <v>1.510460903304129</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.542696226254868</v>
@@ -23908,7 +23800,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.593735776210144</v>
+        <v>1.510795820089099</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.570143859010656</v>
@@ -23997,7 +23889,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612070425771342</v>
+        <v>1.52960036176724</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.896409763670998</v>
@@ -24086,7 +23978,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.623003267288737</v>
+        <v>1.540125779224913</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.942233235414611</v>
@@ -24175,7 +24067,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.619957876705071</v>
+        <v>1.535277093830936</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.789425800945522</v>
@@ -24264,7 +24156,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.620072795688696</v>
+        <v>1.536358235173059</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.778306540107004</v>
@@ -24353,7 +24245,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.620580101745934</v>
+        <v>1.535340968639308</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.849292437321133</v>
@@ -24442,7 +24334,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.621867765572621</v>
+        <v>1.539571195823376</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.651140746523543</v>
@@ -24531,7 +24423,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.618892634389217</v>
+        <v>1.541690618962485</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.227178191943642</v>
@@ -24817,7 +24709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.163791940426838</v>
+        <v>1.141722823798074</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.454637508394593</v>
@@ -24906,7 +24798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.164163546382129</v>
+        <v>1.141431327229542</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.452899393111986</v>
@@ -24995,7 +24887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.165704640902485</v>
+        <v>1.147092108692946</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.437049321140788</v>
@@ -25084,7 +24976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.166473762140778</v>
+        <v>1.148580157219741</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.446583094935987</v>
@@ -25173,7 +25065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.187829353164617</v>
+        <v>1.164834230412446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.4376780030069</v>
@@ -25262,7 +25154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.242389564348266</v>
+        <v>1.229379252733464</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.800851843394668</v>
@@ -25351,7 +25243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.262227872362804</v>
+        <v>1.246837971028621</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.77079922838168</v>
@@ -25440,7 +25332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.329600761996995</v>
+        <v>1.310017880360351</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.901709720636366</v>
@@ -25529,7 +25421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.345417601159871</v>
+        <v>1.326581826362807</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.899617396244085</v>
@@ -25618,7 +25510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374662708308733</v>
+        <v>1.347627298870024</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.875670745894936</v>
@@ -25707,7 +25599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.399356011200186</v>
+        <v>1.378986059166919</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.853687119858875</v>
@@ -25796,7 +25688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.408002681106225</v>
+        <v>1.388071859920322</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.814270124730783</v>
@@ -25885,7 +25777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.488168706899238</v>
+        <v>1.452267688412141</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.82706704071475</v>
@@ -25974,7 +25866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622273690113531</v>
+        <v>1.557706829012549</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.189216656712966</v>
@@ -26063,7 +25955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.624482462480148</v>
+        <v>1.560476934537761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.358081749090306</v>
@@ -26152,7 +26044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.635642542170046</v>
+        <v>1.57130933746</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.341383391022365</v>
@@ -26241,7 +26133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.638693933384829</v>
+        <v>1.572250003648136</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.185595468285908</v>
@@ -26330,7 +26222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.63222177136509</v>
+        <v>1.568155308054246</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.485354440477449</v>
@@ -26419,7 +26311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634037224149047</v>
+        <v>1.570171240543149</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.541904241669584</v>
@@ -26508,7 +26400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.636696921060533</v>
+        <v>1.575744721646883</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.607263317796818</v>
@@ -26597,7 +26489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.624029650596694</v>
+        <v>1.573389561425144</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.409792506281454</v>
@@ -26686,7 +26578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.614688791158524</v>
+        <v>1.574287879302852</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.406883958568554</v>
@@ -26775,7 +26667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.62751587042589</v>
+        <v>1.585527841376138</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.19722199896556</v>
@@ -26864,7 +26756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.609842342914461</v>
+        <v>1.566496676652584</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.395840797406391</v>
@@ -26953,7 +26845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592337098426462</v>
+        <v>1.555525623704992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.277933956066173</v>
@@ -27042,7 +26934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589777179545591</v>
+        <v>1.547051624085374</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.898375106331651</v>
@@ -27131,7 +27023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590503188108674</v>
+        <v>1.544624196738473</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.973489958191344</v>
@@ -27220,7 +27112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.596456156010033</v>
+        <v>1.548065208927727</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.050606269608112</v>
@@ -27309,7 +27201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591970563585439</v>
+        <v>1.539035432094634</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.885320596806588</v>
@@ -27398,7 +27290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585271055379256</v>
+        <v>1.535026444970173</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.872936934408072</v>
@@ -27487,7 +27379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575862738364295</v>
+        <v>1.520972370161163</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.979944845155102</v>
@@ -27576,7 +27468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.560342627288451</v>
+        <v>1.510263618968134</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.09880336451707</v>
@@ -27665,7 +27557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558057108661739</v>
+        <v>1.509191844738955</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.833595928879885</v>
@@ -27754,7 +27646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.547709822805127</v>
+        <v>1.502576687644952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.078723579119744</v>
@@ -27843,7 +27735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545805759652659</v>
+        <v>1.494219871132867</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.726841024580188</v>
@@ -27932,7 +27824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.54192637195052</v>
+        <v>1.490686408066414</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.895614643651732</v>
@@ -28021,7 +27913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5377485564652</v>
+        <v>1.485014057119976</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.818530732781929</v>
@@ -28110,7 +28002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536531000959825</v>
+        <v>1.485850924127124</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.825577430686705</v>
@@ -28199,7 +28091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551049051667784</v>
+        <v>1.497377913643405</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.992710373330241</v>
@@ -28288,7 +28180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.555643117250611</v>
+        <v>1.503533062972169</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.787865124314121</v>
@@ -28377,7 +28269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553985026553802</v>
+        <v>1.506624944907805</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.246428095594195</v>
@@ -28466,7 +28358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548268549796157</v>
+        <v>1.507954785526338</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.104941735092242</v>
@@ -28555,7 +28447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.539230302589244</v>
+        <v>1.502080776939769</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.090947872839453</v>
@@ -28644,7 +28536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.544445000375019</v>
+        <v>1.514242719645434</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.338035695926815</v>
@@ -28733,7 +28625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.547869257882187</v>
+        <v>1.515419193249542</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.071728101587651</v>
@@ -28822,7 +28714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.549397648404157</v>
+        <v>1.518404251385608</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.938545461659972</v>
@@ -28911,7 +28803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.555753733221835</v>
+        <v>1.527532323868193</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.291576756877083</v>
@@ -29000,7 +28892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.549365718253207</v>
+        <v>1.520014732325264</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.182222784492911</v>
@@ -29089,7 +28981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551669562396797</v>
+        <v>1.520849403250512</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.025509487515365</v>
@@ -29178,7 +29070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.548078789598654</v>
+        <v>1.521047516698373</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.425520794219279</v>
@@ -29267,7 +29159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563613924700799</v>
+        <v>1.537200913813013</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.490439581458599</v>
@@ -29356,7 +29248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.560731841235036</v>
+        <v>1.533007996328542</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.265829102153673</v>
@@ -29445,7 +29337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.556440696286744</v>
+        <v>1.523643819460071</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.063767386013974</v>
@@ -29534,7 +29426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.562058713269406</v>
+        <v>1.531146781762134</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.518488291506594</v>
@@ -29623,7 +29515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.563212603425699</v>
+        <v>1.529788669951944</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.282352944404569</v>
@@ -29712,7 +29604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.566583698118307</v>
+        <v>1.531901579708407</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.199499736720131</v>
@@ -29801,7 +29693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.565796154267045</v>
+        <v>1.526096622819908</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.174970563435852</v>
@@ -29890,7 +29782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.580876797646669</v>
+        <v>1.536482518748278</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.472193120522791</v>
@@ -29979,7 +29871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.57375161171514</v>
+        <v>1.52674069410419</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.485760118824987</v>
@@ -30068,7 +29960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.578667766209245</v>
+        <v>1.529152682255291</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.663031931115388</v>
@@ -30157,7 +30049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.575819887432457</v>
+        <v>1.527633771039289</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.145927475039163</v>
@@ -30443,7 +30335,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.33536392870476</v>
+        <v>1.332541889334809</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.911451330344464</v>
@@ -30532,7 +30424,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.341410876544256</v>
+        <v>1.341054987234905</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.853822369943728</v>
@@ -30621,7 +30513,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.346363560235741</v>
+        <v>1.34510657037151</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.875787841150175</v>
@@ -30710,7 +30602,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.34226264038687</v>
+        <v>1.340084430335909</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.88162749276562</v>
@@ -30799,7 +30691,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.370701245802353</v>
+        <v>1.36417641015902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.847272432353181</v>
@@ -30888,7 +30780,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.442237077785278</v>
+        <v>1.430245741491951</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.21364612592039</v>
@@ -30977,7 +30869,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.440692620239632</v>
+        <v>1.429558985665441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.474595680645385</v>
@@ -31066,7 +30958,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.483927936879261</v>
+        <v>1.467318835820354</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.546377090430596</v>
@@ -31155,7 +31047,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.49021164140209</v>
+        <v>1.476746333119934</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.490327717694606</v>
@@ -31244,7 +31136,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.497710612469076</v>
+        <v>1.481844958215789</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.548162910356512</v>
@@ -31333,7 +31225,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.496534786190135</v>
+        <v>1.478962842022849</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.387600634541904</v>
@@ -31422,7 +31314,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.505762575140996</v>
+        <v>1.482763598630893</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.415491875770915</v>
@@ -31511,7 +31403,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.538604760207619</v>
+        <v>1.517287233904508</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.4504221717705</v>
@@ -31600,7 +31492,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556648419016282</v>
+        <v>1.531829723227448</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.34473990897559</v>
@@ -31689,7 +31581,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.567397879539469</v>
+        <v>1.540668989686525</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.521950389613738</v>
@@ -31778,7 +31670,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.585758224180734</v>
+        <v>1.565631465938017</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.753735357959412</v>
@@ -31867,7 +31759,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.565808831790928</v>
+        <v>1.546409421812919</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.962631679206087</v>
@@ -31956,7 +31848,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.555518200058547</v>
+        <v>1.541924139862921</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.157374875458527</v>
@@ -32045,7 +31937,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562953168768379</v>
+        <v>1.544980494320049</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.062618398261115</v>
@@ -32134,7 +32026,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.549216287538029</v>
+        <v>1.532396538872095</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.787484268436257</v>
@@ -32223,7 +32115,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538266470470504</v>
+        <v>1.522956630715686</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.714009619170732</v>
@@ -32312,7 +32204,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532812061675519</v>
+        <v>1.517962813142992</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.855730744450026</v>
@@ -32401,7 +32293,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533476417106168</v>
+        <v>1.512525604153549</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.888229217280452</v>
@@ -32490,7 +32382,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526560599777741</v>
+        <v>1.507536956265835</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.041459812593632</v>
@@ -32579,7 +32471,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.529381570100409</v>
+        <v>1.507386117263317</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.974394069378578</v>
@@ -32668,7 +32560,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.528064451248011</v>
+        <v>1.504517962601458</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.92747900080732</v>
@@ -32757,7 +32649,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.532076668704667</v>
+        <v>1.512174139784216</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.011599573536426</v>
@@ -32846,7 +32738,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54023446734505</v>
+        <v>1.513503980456266</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.651939549840467</v>
@@ -32935,7 +32827,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.525701383440273</v>
+        <v>1.492428880870122</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.758782570391871</v>
@@ -33024,7 +32916,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.517806358586441</v>
+        <v>1.482874173848827</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.539362823982259</v>
@@ -33113,7 +33005,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.495714517130511</v>
+        <v>1.465017306282561</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.573584489766005</v>
@@ -33202,7 +33094,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.510452717477449</v>
+        <v>1.477396273996741</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.605738940917496</v>
@@ -33291,7 +33183,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.516005429506621</v>
+        <v>1.480748734554637</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.515777928618655</v>
@@ -33380,7 +33272,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.510895533789437</v>
+        <v>1.480510178344439</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.632063819016702</v>
@@ -33469,7 +33361,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.520034590034789</v>
+        <v>1.490352833388378</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.766793867217747</v>
@@ -33558,7 +33450,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.532276997133599</v>
+        <v>1.498656434844327</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.852043373219601</v>
@@ -33647,7 +33539,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.551740280141095</v>
+        <v>1.515657874053979</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.953303021480869</v>
@@ -33736,7 +33628,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560178218922494</v>
+        <v>1.528307216426675</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.638616322113907</v>
@@ -33825,7 +33717,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.566789224150764</v>
+        <v>1.533367554250513</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.849165988474142</v>
@@ -33914,7 +33806,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.562707282858139</v>
+        <v>1.529373147728578</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.524294077546385</v>
@@ -34003,7 +33895,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560838210444421</v>
+        <v>1.527207129019605</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.663377325824406</v>
@@ -34092,7 +33984,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550557216189254</v>
+        <v>1.519016477417392</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.715818117794269</v>
@@ -34181,7 +34073,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553700204700035</v>
+        <v>1.520124969841857</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.63365255476686</v>
@@ -34270,7 +34162,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.573635963375279</v>
+        <v>1.54167506081991</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.692276914525437</v>
@@ -34359,7 +34251,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.584619896325144</v>
+        <v>1.552622740315687</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.870868290366856</v>
@@ -34448,7 +34340,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.610455737047221</v>
+        <v>1.569495295499501</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.200449660082603</v>
@@ -34537,7 +34429,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594090679560853</v>
+        <v>1.555029922813678</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.999849892812168</v>
@@ -34626,7 +34518,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585886521232887</v>
+        <v>1.547896238466313</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.070477945402389</v>
@@ -34715,7 +34607,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597389093941143</v>
+        <v>1.560946250529063</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.240565021111588</v>
@@ -34804,7 +34696,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.594962792500325</v>
+        <v>1.551832170192053</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.3786922865711</v>
@@ -34893,7 +34785,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.590878430222322</v>
+        <v>1.554058175592789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.252460283583636</v>
@@ -34982,7 +34874,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.586042059047867</v>
+        <v>1.549564175460725</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.378870968819105</v>
@@ -35071,7 +34963,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.585396834272518</v>
+        <v>1.553057354963972</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.104244171697281</v>
@@ -35160,7 +35052,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580051018984065</v>
+        <v>1.547552037260284</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.970503706563626</v>
@@ -35249,7 +35141,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574138542394023</v>
+        <v>1.547630340463854</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.259973260292128</v>
@@ -35338,7 +35230,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583828109984969</v>
+        <v>1.556757695109318</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.280050836522026</v>
@@ -35427,7 +35319,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.566592626290904</v>
+        <v>1.54219501960735</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.22456593143708</v>
@@ -35516,7 +35408,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.573350489915371</v>
+        <v>1.547004208146283</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.285969323859422</v>
@@ -35605,7 +35497,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.570409499616497</v>
+        <v>1.547987493963809</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.051828160521485</v>
@@ -35694,7 +35586,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.564346390185736</v>
+        <v>1.545390422073</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.150209944224438</v>
@@ -35783,7 +35675,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.563246023325213</v>
+        <v>1.538522850456535</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.559432619808728</v>
